--- a/result_excel/feature_importances.xlsx
+++ b/result_excel/feature_importances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="7">
@@ -502,87 +502,57 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>marital_status_woe</t>
+          <t>education_woe</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>max_max_days_past_due_woe</t>
+          <t>salary_payment_in_bank_account_woe</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.98</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>previous_loans_count_woe</t>
+          <t>reported_expenses_woe</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.87</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>additional_income_woe</t>
+          <t>gender_woe</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.25</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bki_number_of_loans_woe</t>
+          <t>months_at_current_address_woe</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>salary_payment_in_bank_account_woe</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>reported_expenses_woe</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>net_main_income_woe</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
